--- a/data/raw/fuel_prices.xlsx
+++ b/data/raw/fuel_prices.xlsx
@@ -1,45 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thisula\Data Projects\SL_Cost_of_Living_Analysis\SL-Cost-of-Living-Analysis\data\raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26218F6-8739-4F8B-9386-C18B61953B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="there are some months missing. " sheetId="1" r:id="rId4"/>
+    <sheet name="there are some months missing. " sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Date Changed</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Petrol Price (92 Octane)</t>
+    <t>Petrol</t>
   </si>
   <si>
-    <t>Diesel Price (Auto Diesel)</t>
+    <t>Diesel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="dd-mmm-yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd-mmmm-yyyy"/>
-    <numFmt numFmtId="166" formatCode="d-mmm-yyyy"/>
-    <numFmt numFmtId="167" formatCode="d-mmmm-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmmm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="d\-mmmm\-yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -50,48 +60,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -281,20 +290,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -305,887 +323,887 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>46028.0</v>
+        <v>46028</v>
       </c>
       <c r="B2" s="1">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="C2" s="1">
-        <v>279.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45962.0</v>
+        <v>45962</v>
       </c>
       <c r="B3" s="1">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="C3" s="1">
-        <v>277.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45931.0</v>
+        <v>45931</v>
       </c>
       <c r="B4" s="1">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="C4" s="1">
-        <v>277.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45901.0</v>
+        <v>45901</v>
       </c>
       <c r="B5" s="1">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="C5" s="1">
-        <v>283.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45843.0</v>
+        <v>45843</v>
       </c>
       <c r="B6" s="1">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="C6" s="1">
-        <v>289.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45839.0</v>
+        <v>45839</v>
       </c>
       <c r="B7" s="1">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="C7" s="1">
-        <v>289.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45782.0</v>
+        <v>45782</v>
       </c>
       <c r="B8" s="1">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="C8" s="1">
-        <v>274.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>45777.0</v>
+        <v>45777</v>
       </c>
       <c r="B9" s="1">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="C9" s="1">
-        <v>274.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45748.0</v>
+        <v>45748</v>
       </c>
       <c r="B10" s="1">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="C10" s="1">
-        <v>286.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45689.0</v>
+        <v>45689</v>
       </c>
       <c r="B11" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="C11" s="1">
-        <v>286.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45662.0</v>
+        <v>45662</v>
       </c>
       <c r="B12" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="C12" s="1">
-        <v>286.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45659.0</v>
+        <v>45659</v>
       </c>
       <c r="B13" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="C13" s="1">
-        <v>286.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45658.0</v>
+        <v>45658</v>
       </c>
       <c r="B14" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="C14" s="1">
-        <v>286.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45631.0</v>
+        <v>45631</v>
       </c>
       <c r="B15" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="C15" s="1">
-        <v>286.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45627.0</v>
+        <v>45627</v>
       </c>
       <c r="B16" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="C16" s="1">
-        <v>286.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45597.0</v>
+        <v>45597</v>
       </c>
       <c r="B17" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="C17" s="1">
-        <v>283.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45570.0</v>
+        <v>45570</v>
       </c>
       <c r="B18" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="C18" s="1">
-        <v>283.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45566.0</v>
+        <v>45566</v>
       </c>
       <c r="B19" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="C19" s="1">
-        <v>283.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45540.0</v>
+        <v>45540</v>
       </c>
       <c r="B20" s="1">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="C20" s="1">
-        <v>307.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45536.0</v>
+        <v>45536</v>
       </c>
       <c r="B21" s="1">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="C21" s="1">
-        <v>307.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>45519.0</v>
+        <v>45519</v>
       </c>
       <c r="B22" s="1">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="C22" s="1">
-        <v>317.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>45488.0</v>
+        <v>45488</v>
       </c>
       <c r="B23" s="1">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="C23" s="1">
-        <v>317.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45478.0</v>
+        <v>45478</v>
       </c>
       <c r="B24" s="1">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="C24" s="1">
-        <v>317.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45474.0</v>
+        <v>45474</v>
       </c>
       <c r="B25" s="1">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="C25" s="1">
-        <v>317.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45448.0</v>
+        <v>45448</v>
       </c>
       <c r="B26" s="1">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="C26" s="1">
-        <v>317.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45444.0</v>
+        <v>45444</v>
       </c>
       <c r="B27" s="1">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="C27" s="1">
-        <v>317.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>45418.0</v>
+        <v>45418</v>
       </c>
       <c r="B28" s="1">
-        <v>368.0</v>
+        <v>368</v>
       </c>
       <c r="C28" s="1">
-        <v>333.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>45413.0</v>
+        <v>45413</v>
       </c>
       <c r="B29" s="1">
-        <v>368.0</v>
+        <v>368</v>
       </c>
       <c r="C29" s="1">
-        <v>333.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45388.0</v>
+        <v>45388</v>
       </c>
       <c r="B30" s="1">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="C30" s="1">
-        <v>363.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45383.0</v>
+        <v>45383</v>
       </c>
       <c r="B31" s="1">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="C31" s="1">
-        <v>363.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45356.0</v>
+        <v>45356</v>
       </c>
       <c r="B32" s="1">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="C32" s="1">
-        <v>363.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45323.0</v>
+        <v>45323</v>
       </c>
       <c r="B33" s="1">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="C33" s="1">
-        <v>363.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45292.0</v>
+        <v>45292</v>
       </c>
       <c r="B34" s="1">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="C34" s="1">
-        <v>358.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45261.0</v>
+        <v>45261</v>
       </c>
       <c r="B35" s="1">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="C35" s="1">
-        <v>329.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45231.0</v>
+        <v>45231</v>
       </c>
       <c r="B36" s="1">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="C36" s="1">
-        <v>356.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45201.0</v>
+        <v>45201</v>
       </c>
       <c r="B37" s="1">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="C37" s="1">
-        <v>351.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45170.0</v>
+        <v>45170</v>
       </c>
       <c r="B38" s="1">
-        <v>361.0</v>
+        <v>361</v>
       </c>
       <c r="C38" s="1">
-        <v>341.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45139.0</v>
+        <v>45139</v>
       </c>
       <c r="B39" s="1">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="C39" s="1">
-        <v>306.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="B40" s="1">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="C40" s="1">
-        <v>308.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="B41" s="1">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="C41" s="1">
-        <v>310.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>45047.0</v>
+        <v>45047</v>
       </c>
       <c r="B42" s="1">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="C42" s="1">
-        <v>310.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>45015.0</v>
+        <v>45015</v>
       </c>
       <c r="B43" s="1">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="C43" s="1">
-        <v>325.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44987.0</v>
+        <v>44987</v>
       </c>
       <c r="B44" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="C44" s="1">
-        <v>405.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44958.0</v>
+        <v>44958</v>
       </c>
       <c r="B45" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="C45" s="1">
-        <v>405.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44929.0</v>
+        <v>44929</v>
       </c>
       <c r="B46" s="1">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="C46" s="1">
-        <v>405.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44901.0</v>
+        <v>44901</v>
       </c>
       <c r="B47" s="1">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="C47" s="1">
-        <v>420.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>44877.0</v>
+        <v>44877</v>
       </c>
       <c r="B48" s="1">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="C48" s="1">
-        <v>430.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>44851.0</v>
+        <v>44851</v>
       </c>
       <c r="B49" s="1">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="C49" s="1">
-        <v>415.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44836.0</v>
+        <v>44836</v>
       </c>
       <c r="B50" s="1">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="C50" s="1">
-        <v>430.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>44794.0</v>
+        <v>44794</v>
       </c>
       <c r="B51" s="1">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="C51" s="1">
-        <v>430.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>44774.0</v>
+        <v>44774</v>
       </c>
       <c r="B52" s="1">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="C52" s="1">
-        <v>430.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>44759.0</v>
+        <v>44759</v>
       </c>
       <c r="B53" s="1">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="C53" s="1">
-        <v>440.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>44738.0</v>
+        <v>44738</v>
       </c>
       <c r="B54" s="1">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="C54" s="1">
-        <v>460.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>44705.0</v>
+        <v>44705</v>
       </c>
       <c r="B55" s="1">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="C55" s="1">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>44673.0</v>
+        <v>44673</v>
       </c>
       <c r="B56" s="1">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="C56" s="1">
-        <v>289.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>44669.0</v>
+        <v>44669</v>
       </c>
       <c r="B57" s="1">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="C57" s="1">
-        <v>289.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>44642.0</v>
+        <v>44642</v>
       </c>
       <c r="B58" s="1">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="C58" s="1">
-        <v>176.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>44631.0</v>
+        <v>44631</v>
       </c>
       <c r="B59" s="1">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="C59" s="1">
-        <v>176.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B60" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="C60" s="1">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>44550.0</v>
+        <v>44550</v>
       </c>
       <c r="B61" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="C61" s="1">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>44358.0</v>
+        <v>44358</v>
       </c>
       <c r="B62" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="C62" s="1">
-        <v>111.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43718.0</v>
+        <v>43718</v>
       </c>
       <c r="B63" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="C63" s="1">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43690.0</v>
+        <v>43690</v>
       </c>
       <c r="B64" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="C64" s="1">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43657.0</v>
+        <v>43657</v>
       </c>
       <c r="B65" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="C65" s="1">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43627.0</v>
+        <v>43627</v>
       </c>
       <c r="B66" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="C66" s="1">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>43596.0</v>
+        <v>43596</v>
       </c>
       <c r="B67" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="C67" s="1">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43537.0</v>
+        <v>43537</v>
       </c>
       <c r="B68" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="C68" s="1">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43508.0</v>
+        <v>43508</v>
       </c>
       <c r="B69" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="C69" s="1">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43476.0</v>
+        <v>43476</v>
       </c>
       <c r="B70" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C70" s="1">
-        <v>99.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43456.0</v>
+        <v>43456</v>
       </c>
       <c r="B71" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="C71" s="1">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>43435.0</v>
+        <v>43435</v>
       </c>
       <c r="B72" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="C72" s="1">
-        <v>106.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43420.0</v>
+        <v>43420</v>
       </c>
       <c r="B73" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="C73" s="1">
-        <v>111.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>43406.0</v>
+        <v>43406</v>
       </c>
       <c r="B74" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="C74" s="1">
-        <v>116.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43384.0</v>
+        <v>43384</v>
       </c>
       <c r="B75" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="C75" s="1">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43354.0</v>
+        <v>43354</v>
       </c>
       <c r="B76" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="C76" s="1">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>43347.0</v>
+        <v>43347</v>
       </c>
       <c r="B77" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="C77" s="1">
-        <v>118.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>43323.0</v>
+        <v>43323</v>
       </c>
       <c r="B78" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="C78" s="1">
-        <v>118.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43292.0</v>
+        <v>43292</v>
       </c>
       <c r="B79" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="C79" s="1">
-        <v>118.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43264.0</v>
+        <v>43264</v>
       </c>
       <c r="B80" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="C80" s="1">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>43231.0</v>
+        <v>43231</v>
       </c>
       <c r="B81" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="C81" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>